--- a/self-assesments/self-assesment-week5.xlsx
+++ b/self-assesments/self-assesment-week5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wenjian\123\2nd\WebDevelopment\gitUpload\WebDevelopment\self-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B266B76-8BF3-4A8E-9C28-69FD823D5AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C45CA-DA66-4981-9E34-4299C2C06F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3705" yWindow="1425" windowWidth="20085" windowHeight="12525" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,9 @@
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <v>100</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
@@ -566,7 +568,9 @@
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <v>100</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
